--- a/product-definitions/spreadsheet/precipitation.xlsx
+++ b/product-definitions/spreadsheet/precipitation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>drop_counting</t>
+  </si>
+  <si>
+    <t>One of: optical, peizoelectric, tipping_bucket, drop_counting, weighing, collecting, droplet_impact</t>
   </si>
   <si>
     <t>measurement_quanta</t>
@@ -331,11 +334,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -379,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -401,10 +404,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -459,7 +465,7 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -759,7 +765,9 @@
         <v>8</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -784,17 +792,17 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
@@ -820,17 +828,17 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
@@ -856,17 +864,17 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
@@ -892,17 +900,17 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
@@ -929,7 +937,7 @@
     <row r="7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -957,7 +965,7 @@
     <row r="8">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -7692,76 +7700,76 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12">
         <v>22.0</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="14">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15">
         <v>20.0</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>27</v>
+      <c r="C3" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1"/>
@@ -8786,2025 +8794,2025 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="12.0" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" ht="12.0" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" ht="12.0" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" ht="12.0" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" ht="12.0" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" ht="12.0" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="21">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" ht="12.0" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" ht="12.0" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" ht="12.0" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" ht="12.0" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" ht="12.0" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="21">
+        <v>-1.0E20</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" ht="12.0" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" ht="12.0" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" ht="12.0" customHeight="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" ht="12.0" customHeight="1">
+      <c r="A24" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+    </row>
+    <row r="25" ht="12.0" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+    </row>
+    <row r="26" ht="12.0" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+    </row>
+    <row r="27" ht="12.0" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="C27" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+    </row>
+    <row r="28" ht="12.0" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+    </row>
+    <row r="29" ht="12.0" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+    </row>
+    <row r="30" ht="12.0" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="21">
+        <v>-1.0E10</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+    </row>
+    <row r="31" ht="12.0" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+    </row>
+    <row r="32" ht="12.0" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+    </row>
+    <row r="33" ht="12.0" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+    </row>
+    <row r="34" ht="12.0" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+    </row>
+    <row r="35" ht="12.0" customHeight="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+    </row>
+    <row r="36" ht="12.0" customHeight="1">
+      <c r="A36" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+    </row>
+    <row r="37" ht="12.0" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18" t="s">
+      <c r="C37" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="19" t="s">
+    </row>
+    <row r="38" ht="12.0" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" ht="12.0" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18" t="s">
+      <c r="C39" s="20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40" ht="12.0" customHeight="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" ht="12.0" customHeight="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="42" ht="12.0" customHeight="1">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="28">
+        <v>-1.0E10</v>
+      </c>
+    </row>
+    <row r="43" ht="12.0" customHeight="1">
+      <c r="B43" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" ht="12.0" customHeight="1">
+      <c r="B44" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" ht="12.0" customHeight="1">
+      <c r="B45" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" ht="12.0" customHeight="1">
+      <c r="B46" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" ht="12.0" customHeight="1">
+      <c r="A47" s="24"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+    </row>
+    <row r="48" ht="12.0" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+    </row>
+    <row r="49" ht="12.0" customHeight="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" ht="12.0" customHeight="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17" t="s">
+      <c r="C50" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" ht="12.0" customHeight="1">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" ht="12.0" customHeight="1">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="C52" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" ht="12.0" customHeight="1">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="C53" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" ht="12.0" customHeight="1">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="23">
         <v>-1.0E20</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21" t="s">
+    </row>
+    <row r="55" ht="12.0" customHeight="1">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="24"/>
+    </row>
+    <row r="56" ht="12.0" customHeight="1">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="24"/>
+    </row>
+    <row r="57" ht="12.0" customHeight="1">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" ht="12.0" customHeight="1">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" ht="12.0" customHeight="1">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+    </row>
+    <row r="60" ht="12.0" customHeight="1">
+      <c r="A60" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+    </row>
+    <row r="61" ht="12.0" customHeight="1">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" ht="12.0" customHeight="1">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" ht="12.0" customHeight="1">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" ht="12.0" customHeight="1">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" ht="12.0" customHeight="1">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" ht="12.0" customHeight="1">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C66" s="23">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="67" ht="12.0" customHeight="1">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="C67" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" ht="12.0" customHeight="1">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="C68" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" ht="12.0" customHeight="1">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" ht="12.0" customHeight="1">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="C70" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" ht="12.0" customHeight="1">
+      <c r="C71" s="20"/>
+    </row>
+    <row r="72" ht="12.0" customHeight="1">
+      <c r="A72" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+    </row>
+    <row r="73" ht="12.0" customHeight="1">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" ht="12.0" customHeight="1">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" ht="12.0" customHeight="1">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" ht="12.0" customHeight="1">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" ht="12.0" customHeight="1">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" ht="12.0" customHeight="1">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="23">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="79" ht="12.0" customHeight="1">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" ht="12.0" customHeight="1">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" ht="12.0" customHeight="1">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" ht="12.0" customHeight="1">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" ht="12.0" customHeight="1">
+      <c r="C83" s="20"/>
+    </row>
+    <row r="84" ht="12.0" customHeight="1">
+      <c r="A84" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+    </row>
+    <row r="85" ht="12.0" customHeight="1">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" ht="12.0" customHeight="1">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" ht="12.0" customHeight="1">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" ht="12.0" customHeight="1">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" ht="12.0" customHeight="1">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" ht="12.0" customHeight="1">
+      <c r="A90" s="22"/>
+      <c r="B90" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="23">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="91" ht="12.0" customHeight="1">
+      <c r="A91" s="22"/>
+      <c r="B91" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" ht="12.0" customHeight="1">
+      <c r="A92" s="22"/>
+      <c r="B92" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" ht="12.0" customHeight="1">
+      <c r="A93" s="22"/>
+      <c r="B93" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" ht="12.0" customHeight="1">
+      <c r="A94" s="22"/>
+      <c r="B94" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" ht="12.0" customHeight="1">
+      <c r="C95" s="20"/>
+    </row>
+    <row r="96" ht="12.0" customHeight="1">
+      <c r="A96" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+    </row>
+    <row r="97" ht="12.0" customHeight="1">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" ht="12.0" customHeight="1">
+      <c r="A98" s="22"/>
+      <c r="B98" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" ht="12.0" customHeight="1">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" ht="12.0" customHeight="1">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" ht="12.0" customHeight="1">
+      <c r="A101" s="22"/>
+      <c r="B101" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" ht="12.0" customHeight="1">
+      <c r="A102" s="22"/>
+      <c r="B102" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="23">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="103" ht="12.0" customHeight="1">
+      <c r="A103" s="22"/>
+      <c r="B103" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" ht="12.0" customHeight="1">
+      <c r="A104" s="22"/>
+      <c r="B104" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" ht="12.0" customHeight="1">
+      <c r="A105" s="22"/>
+      <c r="B105" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" ht="12.0" customHeight="1">
+      <c r="A106" s="22"/>
+      <c r="B106" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" ht="12.0" customHeight="1">
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+    </row>
+    <row r="108" ht="12.0" customHeight="1">
+      <c r="A108" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+    </row>
+    <row r="109" ht="12.0" customHeight="1">
+      <c r="B109" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" ht="12.0" customHeight="1">
+      <c r="A110" s="22"/>
+      <c r="B110" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" ht="12.0" customHeight="1">
+      <c r="A111" s="22"/>
+      <c r="B111" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
+      <c r="L111" s="31"/>
+      <c r="M111" s="31"/>
+      <c r="N111" s="31"/>
+      <c r="O111" s="31"/>
+      <c r="P111" s="31"/>
+      <c r="Q111" s="31"/>
+      <c r="R111" s="31"/>
+      <c r="S111" s="31"/>
+      <c r="T111" s="31"/>
+      <c r="U111" s="31"/>
+      <c r="V111" s="31"/>
+      <c r="W111" s="31"/>
+      <c r="X111" s="31"/>
+      <c r="Y111" s="31"/>
+      <c r="Z111" s="31"/>
+    </row>
+    <row r="112" ht="12.0" customHeight="1">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" ht="12.0" customHeight="1">
+      <c r="A113" s="22"/>
+      <c r="B113" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" ht="12.0" customHeight="1">
+      <c r="A114" s="22"/>
+      <c r="B114" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" s="23">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="115" ht="12.0" customHeight="1">
+      <c r="A115" s="22"/>
+      <c r="B115" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" ht="12.0" customHeight="1">
+      <c r="A116" s="22"/>
+      <c r="B116" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" ht="12.0" customHeight="1">
+      <c r="A117" s="22"/>
+      <c r="B117" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" ht="12.0" customHeight="1">
+      <c r="A118" s="22"/>
+      <c r="B118" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" ht="12.0" customHeight="1">
+      <c r="C119" s="20"/>
+    </row>
+    <row r="120" ht="12.0" customHeight="1">
+      <c r="A120" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+    </row>
+    <row r="121" ht="12.0" customHeight="1">
+      <c r="A121" s="22"/>
+      <c r="B121" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" ht="12.0" customHeight="1">
+      <c r="A122" s="22"/>
+      <c r="B122" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" ht="12.0" customHeight="1">
+      <c r="A123" s="22"/>
+      <c r="B123" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    </row>
+    <row r="124" ht="12.0" customHeight="1">
+      <c r="A124" s="22"/>
+      <c r="B124" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" ht="12.0" customHeight="1">
+      <c r="A125" s="22"/>
+      <c r="B125" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" ht="12.0" customHeight="1">
+      <c r="A126" s="22"/>
+      <c r="B126" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" s="23">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="127" ht="12.0" customHeight="1">
+      <c r="A127" s="22"/>
+      <c r="B127" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" ht="12.0" customHeight="1">
+      <c r="A128" s="22"/>
+      <c r="B128" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" ht="12.0" customHeight="1">
+      <c r="A129" s="22"/>
+      <c r="B129" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" ht="12.0" customHeight="1">
+      <c r="A130" s="22"/>
+      <c r="B130" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" ht="12.0" customHeight="1">
+      <c r="C131" s="20"/>
+    </row>
+    <row r="132" ht="12.0" customHeight="1">
+      <c r="A132" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" ht="12.0" customHeight="1">
+      <c r="B133" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18" t="s">
+      <c r="C133" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18" t="s">
+    </row>
+    <row r="134" ht="12.0" customHeight="1">
+      <c r="B134" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="C134" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" ht="12.0" customHeight="1">
+      <c r="B135" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136" ht="12.0" customHeight="1">
+      <c r="B136" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="22"/>
+      <c r="D136" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" ht="12.0" customHeight="1">
+      <c r="B137" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" ht="12.0" customHeight="1">
+      <c r="B138" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="23">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="139" ht="12.0" customHeight="1">
+      <c r="B139" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" ht="12.0" customHeight="1">
+      <c r="B140" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="141" ht="12.0" customHeight="1">
+      <c r="B141" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="142" ht="12.0" customHeight="1">
+      <c r="B142" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="20">
+    </row>
+    <row r="143" ht="12.0" customHeight="1">
+      <c r="C143" s="20"/>
+    </row>
+    <row r="144" ht="12.0" customHeight="1">
+      <c r="A144" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" ht="12.0" customHeight="1">
+      <c r="A145" s="14"/>
+      <c r="B145" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" ht="12.0" customHeight="1">
+      <c r="A146" s="14"/>
+      <c r="B146" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" ht="12.0" customHeight="1">
+      <c r="A147" s="14"/>
+      <c r="B147" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" ht="12.0" customHeight="1">
+      <c r="B148" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="149" ht="12.0" customHeight="1">
+      <c r="A149" s="31"/>
+      <c r="B149" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D149" s="31"/>
+    </row>
+    <row r="150" ht="12.0" customHeight="1">
+      <c r="A150" s="14"/>
+      <c r="B150" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" s="21">
         <v>-1.0E20</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="21" t="s">
+    </row>
+    <row r="151" ht="12.0" customHeight="1">
+      <c r="A151" s="14"/>
+      <c r="B151" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" ht="12.0" customHeight="1">
+      <c r="A152" s="14"/>
+      <c r="B152" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" ht="12.0" customHeight="1">
+      <c r="A153" s="14"/>
+      <c r="B153" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" ht="12.0" customHeight="1">
+      <c r="A154" s="14"/>
+      <c r="B154" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" ht="12.0" customHeight="1">
+      <c r="C155" s="20"/>
+    </row>
+    <row r="156" ht="12.0" customHeight="1">
+      <c r="A156" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+    </row>
+    <row r="157" ht="12.0" customHeight="1">
+      <c r="A157" s="18"/>
+      <c r="B157" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158" ht="12.0" customHeight="1">
+      <c r="A158" s="18"/>
+      <c r="B158" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" ht="12.0" customHeight="1">
+      <c r="A159" s="18"/>
+      <c r="B159" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" ht="12.0" customHeight="1">
+      <c r="A160" s="18"/>
+      <c r="B160" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" s="20"/>
+    </row>
+    <row r="161" ht="12.0" customHeight="1">
+      <c r="A161" s="18"/>
+      <c r="B161" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162" ht="12.0" customHeight="1">
+      <c r="A162" s="18"/>
+      <c r="B162" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C162" s="21">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="163" ht="12.0" customHeight="1">
+      <c r="A163" s="18"/>
+      <c r="B163" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="22" t="s">
+      <c r="C163" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" ht="12.0" customHeight="1">
+      <c r="A164" s="18"/>
+      <c r="B164" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="C164" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="165" ht="12.0" customHeight="1">
+      <c r="A165" s="18"/>
+      <c r="B165" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" ht="12.0" customHeight="1">
+      <c r="A166" s="18"/>
+      <c r="B166" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-    </row>
-    <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="25" t="s">
+      <c r="C166" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K166" s="20"/>
+    </row>
+    <row r="167" ht="12.0" customHeight="1">
+      <c r="A167" s="22"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="K167" s="20"/>
+    </row>
+    <row r="168" ht="12.0" customHeight="1">
+      <c r="A168" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B168" s="19"/>
+      <c r="C168" s="20"/>
+    </row>
+    <row r="169" ht="12.0" customHeight="1">
+      <c r="A169" s="19"/>
+      <c r="B169" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-    </row>
-    <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-    </row>
-    <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="19">
+      <c r="C169" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K169" s="35"/>
+    </row>
+    <row r="170" ht="12.0" customHeight="1">
+      <c r="A170" s="19"/>
+      <c r="B170" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K170" s="35"/>
+    </row>
+    <row r="171" ht="12.0" customHeight="1">
+      <c r="A171" s="19"/>
+      <c r="B171" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" s="35">
         <v>1.0</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-    </row>
-    <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-    </row>
-    <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-    </row>
-    <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="20">
-        <v>-1.0E10</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-    </row>
-    <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-    </row>
-    <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-    </row>
-    <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-    </row>
-    <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-    </row>
-    <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-    </row>
-    <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" ht="12.0" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" ht="12.0" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="24"/>
-    </row>
-    <row r="42" ht="12.0" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="27">
-        <v>-1.0E10</v>
-      </c>
-    </row>
-    <row r="43" ht="12.0" customHeight="1">
-      <c r="B43" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" ht="12.0" customHeight="1">
-      <c r="B44" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" ht="12.0" customHeight="1">
-      <c r="B45" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" ht="12.0" customHeight="1">
-      <c r="B46" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="23"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-    </row>
-    <row r="48" ht="12.0" customHeight="1">
-      <c r="A48" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-    </row>
-    <row r="49" ht="12.0" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" ht="12.0" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" ht="12.0" customHeight="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" ht="12.0" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" ht="12.0" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="22">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="55" ht="12.0" customHeight="1">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" ht="12.0" customHeight="1">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" ht="12.0" customHeight="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" ht="12.0" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" ht="12.0" customHeight="1">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-    </row>
-    <row r="60" ht="12.0" customHeight="1">
-      <c r="A60" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-    </row>
-    <row r="61" ht="12.0" customHeight="1">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" ht="12.0" customHeight="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" ht="12.0" customHeight="1">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" ht="12.0" customHeight="1">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" ht="12.0" customHeight="1">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" ht="12.0" customHeight="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="22">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="67" ht="12.0" customHeight="1">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" ht="12.0" customHeight="1">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" ht="12.0" customHeight="1">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" ht="12.0" customHeight="1">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" ht="12.0" customHeight="1">
-      <c r="C71" s="19"/>
-    </row>
-    <row r="72" ht="12.0" customHeight="1">
-      <c r="A72" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-    </row>
-    <row r="73" ht="12.0" customHeight="1">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" ht="12.0" customHeight="1">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" ht="12.0" customHeight="1">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" ht="12.0" customHeight="1">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" ht="12.0" customHeight="1">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" ht="12.0" customHeight="1">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="22">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="79" ht="12.0" customHeight="1">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" ht="12.0" customHeight="1">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" ht="12.0" customHeight="1">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" ht="12.0" customHeight="1">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" ht="12.0" customHeight="1">
-      <c r="C83" s="19"/>
-    </row>
-    <row r="84" ht="12.0" customHeight="1">
-      <c r="A84" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-    </row>
-    <row r="85" ht="12.0" customHeight="1">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" ht="12.0" customHeight="1">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" ht="12.0" customHeight="1">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" ht="12.0" customHeight="1">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" ht="12.0" customHeight="1">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" ht="12.0" customHeight="1">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" s="22">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="91" ht="12.0" customHeight="1">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" ht="12.0" customHeight="1">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" ht="12.0" customHeight="1">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" ht="12.0" customHeight="1">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" ht="12.0" customHeight="1">
-      <c r="C95" s="19"/>
-    </row>
-    <row r="96" ht="12.0" customHeight="1">
-      <c r="A96" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-    </row>
-    <row r="97" ht="12.0" customHeight="1">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" ht="12.0" customHeight="1">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" ht="12.0" customHeight="1">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" ht="12.0" customHeight="1">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" ht="12.0" customHeight="1">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" ht="12.0" customHeight="1">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C102" s="22">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="103" ht="12.0" customHeight="1">
-      <c r="A103" s="21"/>
-      <c r="B103" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" ht="12.0" customHeight="1">
-      <c r="A104" s="21"/>
-      <c r="B104" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" ht="12.0" customHeight="1">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="106" ht="12.0" customHeight="1">
-      <c r="A106" s="21"/>
-      <c r="B106" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" ht="12.0" customHeight="1">
-      <c r="A107" s="21"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-    </row>
-    <row r="108" ht="12.0" customHeight="1">
-      <c r="A108" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-    </row>
-    <row r="109" ht="12.0" customHeight="1">
-      <c r="B109" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="110" ht="12.0" customHeight="1">
-      <c r="A110" s="21"/>
-      <c r="B110" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="111" ht="12.0" customHeight="1">
-      <c r="A111" s="21"/>
-      <c r="B111" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="30"/>
-      <c r="K111" s="30"/>
-      <c r="L111" s="30"/>
-      <c r="M111" s="30"/>
-      <c r="N111" s="30"/>
-      <c r="O111" s="30"/>
-      <c r="P111" s="30"/>
-      <c r="Q111" s="30"/>
-      <c r="R111" s="30"/>
-      <c r="S111" s="30"/>
-      <c r="T111" s="30"/>
-      <c r="U111" s="30"/>
-      <c r="V111" s="30"/>
-      <c r="W111" s="30"/>
-      <c r="X111" s="30"/>
-      <c r="Y111" s="30"/>
-      <c r="Z111" s="30"/>
-    </row>
-    <row r="112" ht="12.0" customHeight="1">
-      <c r="A112" s="21"/>
-      <c r="B112" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" ht="12.0" customHeight="1">
-      <c r="A113" s="21"/>
-      <c r="B113" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="114" ht="12.0" customHeight="1">
-      <c r="A114" s="21"/>
-      <c r="B114" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C114" s="22">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="115" ht="12.0" customHeight="1">
-      <c r="A115" s="21"/>
-      <c r="B115" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" ht="12.0" customHeight="1">
-      <c r="A116" s="21"/>
-      <c r="B116" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" ht="12.0" customHeight="1">
-      <c r="A117" s="21"/>
-      <c r="B117" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="118" ht="12.0" customHeight="1">
-      <c r="A118" s="21"/>
-      <c r="B118" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="119" ht="12.0" customHeight="1">
-      <c r="C119" s="19"/>
-    </row>
-    <row r="120" ht="12.0" customHeight="1">
-      <c r="A120" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B120" s="21"/>
-      <c r="C120" s="21"/>
-    </row>
-    <row r="121" ht="12.0" customHeight="1">
-      <c r="A121" s="21"/>
-      <c r="B121" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="122" ht="12.0" customHeight="1">
-      <c r="A122" s="21"/>
-      <c r="B122" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="123" ht="12.0" customHeight="1">
-      <c r="A123" s="21"/>
-      <c r="B123" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" ht="12.0" customHeight="1">
-      <c r="A124" s="21"/>
-      <c r="B124" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="125" ht="12.0" customHeight="1">
-      <c r="A125" s="21"/>
-      <c r="B125" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="126" ht="12.0" customHeight="1">
-      <c r="A126" s="21"/>
-      <c r="B126" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C126" s="22">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="127" ht="12.0" customHeight="1">
-      <c r="A127" s="21"/>
-      <c r="B127" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" ht="12.0" customHeight="1">
-      <c r="A128" s="21"/>
-      <c r="B128" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" ht="12.0" customHeight="1">
-      <c r="A129" s="21"/>
-      <c r="B129" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" ht="12.0" customHeight="1">
-      <c r="A130" s="21"/>
-      <c r="B130" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="131" ht="12.0" customHeight="1">
-      <c r="C131" s="19"/>
-    </row>
-    <row r="132" ht="12.0" customHeight="1">
-      <c r="A132" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="133" ht="12.0" customHeight="1">
-      <c r="B133" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134" ht="12.0" customHeight="1">
-      <c r="B134" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C134" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="135" ht="12.0" customHeight="1">
-      <c r="B135" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C135" s="21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="136" ht="12.0" customHeight="1">
-      <c r="B136" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C136" s="21"/>
-      <c r="D136" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="137" ht="12.0" customHeight="1">
-      <c r="B137" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138" ht="12.0" customHeight="1">
-      <c r="B138" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C138" s="22">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="139" ht="12.0" customHeight="1">
-      <c r="B139" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" ht="12.0" customHeight="1">
-      <c r="B140" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="141" ht="12.0" customHeight="1">
-      <c r="B141" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C141" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" ht="12.0" customHeight="1">
-      <c r="B142" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C142" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" ht="12.0" customHeight="1">
-      <c r="C143" s="19"/>
-    </row>
-    <row r="144" ht="12.0" customHeight="1">
-      <c r="A144" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="145" ht="12.0" customHeight="1">
-      <c r="A145" s="13"/>
-      <c r="B145" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146" ht="12.0" customHeight="1">
-      <c r="A146" s="13"/>
-      <c r="B146" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C146" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" ht="12.0" customHeight="1">
-      <c r="A147" s="13"/>
-      <c r="B147" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C147" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="148" ht="12.0" customHeight="1">
-      <c r="B148" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C148" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="149" ht="12.0" customHeight="1">
-      <c r="A149" s="30"/>
-      <c r="B149" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C149" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D149" s="30"/>
-    </row>
-    <row r="150" ht="12.0" customHeight="1">
-      <c r="A150" s="13"/>
-      <c r="B150" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C150" s="20">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="151" ht="12.0" customHeight="1">
-      <c r="A151" s="13"/>
-      <c r="B151" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="152" ht="12.0" customHeight="1">
-      <c r="A152" s="13"/>
-      <c r="B152" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="153" ht="12.0" customHeight="1">
-      <c r="A153" s="13"/>
-      <c r="B153" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="154" ht="12.0" customHeight="1">
-      <c r="A154" s="13"/>
-      <c r="B154" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="155" ht="12.0" customHeight="1">
-      <c r="C155" s="19"/>
-    </row>
-    <row r="156" ht="12.0" customHeight="1">
-      <c r="A156" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-    </row>
-    <row r="157" ht="12.0" customHeight="1">
-      <c r="A157" s="17"/>
-      <c r="B157" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C157" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="158" ht="12.0" customHeight="1">
-      <c r="A158" s="17"/>
-      <c r="B158" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="159" ht="12.0" customHeight="1">
-      <c r="A159" s="17"/>
-      <c r="B159" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C159" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="160" ht="12.0" customHeight="1">
-      <c r="A160" s="17"/>
-      <c r="B160" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C160" s="19"/>
-    </row>
-    <row r="161" ht="12.0" customHeight="1">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C161" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="162" ht="12.0" customHeight="1">
-      <c r="A162" s="17"/>
-      <c r="B162" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C162" s="20">
-        <v>-1.0E20</v>
-      </c>
-    </row>
-    <row r="163" ht="12.0" customHeight="1">
-      <c r="A163" s="17"/>
-      <c r="B163" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C163" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="164" ht="12.0" customHeight="1">
-      <c r="A164" s="17"/>
-      <c r="B164" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="165" ht="12.0" customHeight="1">
-      <c r="A165" s="17"/>
-      <c r="B165" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="166" ht="12.0" customHeight="1">
-      <c r="A166" s="17"/>
-      <c r="B166" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K166" s="19"/>
-    </row>
-    <row r="167" ht="12.0" customHeight="1">
-      <c r="A167" s="21"/>
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-      <c r="K167" s="19"/>
-    </row>
-    <row r="168" ht="12.0" customHeight="1">
-      <c r="A168" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B168" s="18"/>
-      <c r="C168" s="19"/>
-    </row>
-    <row r="169" ht="12.0" customHeight="1">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K169" s="34"/>
-    </row>
-    <row r="170" ht="12.0" customHeight="1">
-      <c r="A170" s="18"/>
-      <c r="B170" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K170" s="34"/>
-    </row>
-    <row r="171" ht="12.0" customHeight="1">
-      <c r="A171" s="18"/>
-      <c r="B171" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C171" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="K171" s="19"/>
+      <c r="K171" s="20"/>
     </row>
     <row r="172" ht="12.0" customHeight="1">
-      <c r="A172" s="18"/>
-      <c r="B172" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C172" s="34"/>
-      <c r="J172" s="21"/>
-      <c r="K172" s="36"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C172" s="35"/>
+      <c r="J172" s="22"/>
+      <c r="K172" s="37"/>
     </row>
     <row r="173" ht="12.0" customHeight="1">
-      <c r="A173" s="18"/>
-      <c r="B173" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>89</v>
+      <c r="A173" s="19"/>
+      <c r="B173" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
     </row>
     <row r="174" ht="12.0" customHeight="1">
-      <c r="A174" s="18"/>
-      <c r="B174" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C174" s="36" t="s">
+      <c r="A174" s="19"/>
+      <c r="B174" s="22" t="s">
         <v>91</v>
       </c>
+      <c r="C174" s="37" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="175" ht="12.0" customHeight="1">
-      <c r="A175" s="18"/>
+      <c r="A175" s="19"/>
       <c r="B175" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="176" ht="12.0" customHeight="1">
-      <c r="C176" s="26"/>
+      <c r="C176" s="27"/>
     </row>
     <row r="177" ht="12.0" customHeight="1">
-      <c r="C177" s="19"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" ht="12.0" customHeight="1">
-      <c r="C178" s="19"/>
+      <c r="C178" s="20"/>
     </row>
     <row r="179" ht="12.0" customHeight="1"/>
     <row r="180" ht="12.0" customHeight="1">
-      <c r="C180" s="19"/>
+      <c r="C180" s="20"/>
     </row>
     <row r="181" ht="12.0" customHeight="1">
-      <c r="C181" s="19"/>
+      <c r="C181" s="20"/>
     </row>
     <row r="182" ht="12.0" customHeight="1">
-      <c r="C182" s="19"/>
+      <c r="C182" s="20"/>
     </row>
     <row r="183" ht="12.0" customHeight="1">
-      <c r="C183" s="19"/>
+      <c r="C183" s="20"/>
     </row>
     <row r="184" ht="12.0" customHeight="1">
-      <c r="C184" s="19"/>
+      <c r="C184" s="20"/>
     </row>
     <row r="185" ht="12.0" customHeight="1">
-      <c r="C185" s="19"/>
+      <c r="C185" s="20"/>
     </row>
     <row r="186" ht="12.0" customHeight="1">
-      <c r="C186" s="20"/>
+      <c r="C186" s="21"/>
     </row>
     <row r="187" ht="12.0" customHeight="1">
-      <c r="C187" s="26"/>
+      <c r="C187" s="27"/>
     </row>
     <row r="188" ht="12.0" customHeight="1">
-      <c r="C188" s="26"/>
+      <c r="C188" s="27"/>
     </row>
     <row r="189" ht="12.0" customHeight="1">
-      <c r="C189" s="19"/>
+      <c r="C189" s="20"/>
     </row>
     <row r="190" ht="12.0" customHeight="1">
-      <c r="C190" s="19"/>
+      <c r="C190" s="20"/>
     </row>
     <row r="191" ht="12.0" customHeight="1">
-      <c r="A191" s="21"/>
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
+      <c r="A191" s="22"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
     </row>
     <row r="192" ht="12.0" customHeight="1">
-      <c r="A192" s="21"/>
-      <c r="B192" s="21"/>
-      <c r="C192" s="21"/>
+      <c r="A192" s="22"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
     </row>
     <row r="193" ht="12.0" customHeight="1">
-      <c r="A193" s="21"/>
-      <c r="B193" s="21"/>
-      <c r="C193" s="21"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="22"/>
     </row>
     <row r="194" ht="12.0" customHeight="1">
-      <c r="A194" s="21"/>
-      <c r="B194" s="21"/>
-      <c r="C194" s="21"/>
+      <c r="A194" s="22"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="22"/>
     </row>
     <row r="195" ht="12.0" customHeight="1">
-      <c r="A195" s="21"/>
-      <c r="B195" s="21"/>
-      <c r="C195" s="21"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
     </row>
     <row r="196" ht="12.0" customHeight="1">
-      <c r="A196" s="21"/>
-      <c r="B196" s="21"/>
-      <c r="C196" s="22"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="23"/>
     </row>
     <row r="197" ht="12.0" customHeight="1">
-      <c r="A197" s="21"/>
-      <c r="B197" s="21"/>
-      <c r="C197" s="28"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="29"/>
     </row>
     <row r="198" ht="12.0" customHeight="1">
-      <c r="A198" s="21"/>
-      <c r="B198" s="21"/>
-      <c r="C198" s="28"/>
+      <c r="A198" s="22"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="29"/>
     </row>
     <row r="199" ht="12.0" customHeight="1">
-      <c r="A199" s="21"/>
-      <c r="B199" s="21"/>
-      <c r="C199" s="21"/>
+      <c r="A199" s="22"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="22"/>
     </row>
     <row r="200" ht="12.0" customHeight="1">
-      <c r="A200" s="21"/>
-      <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
+      <c r="A200" s="22"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
     </row>
     <row r="201" ht="12.0" customHeight="1">
-      <c r="A201" s="21"/>
-      <c r="B201" s="21"/>
-      <c r="C201" s="21"/>
+      <c r="A201" s="22"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
     </row>
     <row r="202" ht="12.0" customHeight="1">
-      <c r="A202" s="21"/>
-      <c r="B202" s="21"/>
-      <c r="C202" s="21"/>
+      <c r="A202" s="22"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="22"/>
     </row>
     <row r="203" ht="12.0" customHeight="1">
-      <c r="A203" s="21"/>
-      <c r="B203" s="21"/>
-      <c r="C203" s="21"/>
+      <c r="A203" s="22"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="22"/>
     </row>
     <row r="204" ht="12.0" customHeight="1">
-      <c r="A204" s="21"/>
-      <c r="B204" s="21"/>
-      <c r="C204" s="21"/>
+      <c r="A204" s="22"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="22"/>
     </row>
     <row r="205" ht="12.0" customHeight="1">
-      <c r="A205" s="21"/>
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
+      <c r="A205" s="22"/>
+      <c r="B205" s="22"/>
+      <c r="C205" s="22"/>
     </row>
     <row r="206" ht="12.0" customHeight="1">
-      <c r="A206" s="21"/>
-      <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
     </row>
     <row r="207" ht="12.0" customHeight="1">
-      <c r="A207" s="21"/>
-      <c r="B207" s="21"/>
-      <c r="C207" s="21"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
     </row>
     <row r="208" ht="12.0" customHeight="1">
-      <c r="A208" s="21"/>
-      <c r="B208" s="21"/>
-      <c r="C208" s="22"/>
+      <c r="A208" s="22"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="23"/>
     </row>
     <row r="209" ht="12.0" customHeight="1">
-      <c r="A209" s="21"/>
-      <c r="B209" s="21"/>
-      <c r="C209" s="28"/>
+      <c r="A209" s="22"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="29"/>
     </row>
     <row r="210" ht="12.0" customHeight="1">
-      <c r="A210" s="21"/>
-      <c r="B210" s="21"/>
-      <c r="C210" s="28"/>
+      <c r="A210" s="22"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="29"/>
     </row>
     <row r="211" ht="12.0" customHeight="1">
-      <c r="A211" s="21"/>
-      <c r="B211" s="21"/>
-      <c r="C211" s="21"/>
+      <c r="A211" s="22"/>
+      <c r="B211" s="22"/>
+      <c r="C211" s="22"/>
     </row>
     <row r="212" ht="12.0" customHeight="1">
-      <c r="A212" s="21"/>
-      <c r="B212" s="21"/>
-      <c r="C212" s="21"/>
+      <c r="A212" s="22"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="22"/>
     </row>
     <row r="213" ht="12.0" customHeight="1"/>
     <row r="214" ht="12.0" customHeight="1"/>
     <row r="215" ht="12.0" customHeight="1">
-      <c r="B215" s="21"/>
-      <c r="C215" s="21"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="22"/>
     </row>
     <row r="216" ht="12.0" customHeight="1">
-      <c r="B216" s="21"/>
-      <c r="C216" s="21"/>
+      <c r="B216" s="22"/>
+      <c r="C216" s="22"/>
     </row>
     <row r="217" ht="12.0" customHeight="1">
-      <c r="B217" s="21"/>
-      <c r="C217" s="21"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="22"/>
     </row>
     <row r="218" ht="12.0" customHeight="1">
-      <c r="B218" s="21"/>
-      <c r="C218" s="21"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
     </row>
     <row r="219" ht="12.0" customHeight="1">
-      <c r="B219" s="21"/>
-      <c r="C219" s="21"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
     </row>
     <row r="220" ht="12.0" customHeight="1">
-      <c r="B220" s="21"/>
-      <c r="C220" s="22"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="23"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
-      <c r="B221" s="21"/>
-      <c r="C221" s="28"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="29"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
-      <c r="B222" s="21"/>
-      <c r="C222" s="28"/>
+      <c r="B222" s="22"/>
+      <c r="C222" s="29"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
-      <c r="B223" s="21"/>
-      <c r="C223" s="21"/>
+      <c r="B223" s="22"/>
+      <c r="C223" s="22"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
-      <c r="B224" s="21"/>
-      <c r="C224" s="21"/>
+      <c r="B224" s="22"/>
+      <c r="C224" s="22"/>
     </row>
     <row r="225" ht="12.0" customHeight="1">
-      <c r="C225" s="19"/>
+      <c r="C225" s="20"/>
     </row>
     <row r="226" ht="12.0" customHeight="1">
-      <c r="C226" s="19"/>
+      <c r="C226" s="20"/>
     </row>
     <row r="227" ht="12.0" customHeight="1">
-      <c r="C227" s="19"/>
+      <c r="C227" s="20"/>
     </row>
     <row r="228" ht="12.0" customHeight="1"/>
     <row r="229" ht="12.0" customHeight="1">
-      <c r="C229" s="34"/>
+      <c r="C229" s="35"/>
     </row>
     <row r="230" ht="12.0" customHeight="1">
-      <c r="C230" s="34"/>
+      <c r="C230" s="35"/>
     </row>
     <row r="231" ht="12.0" customHeight="1">
-      <c r="C231" s="19"/>
+      <c r="C231" s="20"/>
     </row>
     <row r="232" ht="12.0" customHeight="1">
-      <c r="B232" s="21"/>
-      <c r="C232" s="36"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="37"/>
     </row>
     <row r="233" ht="12.0" customHeight="1">
       <c r="B233" s="4"/>
